--- a/biology/Zoologie/Gerbillus_syrticus/Gerbillus_syrticus.xlsx
+++ b/biology/Zoologie/Gerbillus_syrticus/Gerbillus_syrticus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerbillus syrticus ou Gerbillus (Hendecapleura) syrticus est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés que l'on rencontre sur le pourtour du Sahara et l'ouest de l'Arabie.
 Synonyme : Gerbillus henleyi (de Winton, 1903)
